--- a/vignettes/tableau.xlsx
+++ b/vignettes/tableau.xlsx
@@ -108,7 +108,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <b/>
     </font>
@@ -127,7 +127,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8D7E"/>
+        <fgColor rgb="FF548235"/>
       </patternFill>
     </fill>
   </fills>
@@ -498,71 +498,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="s">
+    <row r="3">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" s="3" t="s">
+    <row r="5">
+      <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="4" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="E6" s="4" t="n">
         <v>0.2</v>
@@ -573,13 +539,13 @@
     </row>
     <row r="7">
       <c r="B7" s="4" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="E7" s="4" t="n">
         <v>0.2</v>
@@ -590,13 +556,13 @@
     </row>
     <row r="8">
       <c r="B8" s="4" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="E8" s="4" t="n">
         <v>0.2</v>
@@ -607,16 +573,16 @@
     </row>
     <row r="9">
       <c r="B9" s="4" t="n">
-        <v>5.4</v>
+        <v>4.6</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>5</v>
@@ -624,16 +590,16 @@
     </row>
     <row r="10">
       <c r="B10" s="4" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>1.4</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>5</v>
@@ -641,16 +607,16 @@
     </row>
     <row r="11">
       <c r="B11" s="4" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>5</v>
@@ -658,16 +624,16 @@
     </row>
     <row r="12">
       <c r="B12" s="4" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>1.4</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>5</v>
@@ -675,16 +641,16 @@
     </row>
     <row r="13">
       <c r="B13" s="4" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>1.5</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>5</v>
@@ -692,13 +658,13 @@
     </row>
     <row r="14">
       <c r="B14" s="4" t="n">
-        <v>5.4</v>
+        <v>4.4</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="E14" s="4" t="n">
         <v>0.2</v>
@@ -709,16 +675,16 @@
     </row>
     <row r="15">
       <c r="B15" s="4" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>5</v>
@@ -726,16 +692,16 @@
     </row>
     <row r="16">
       <c r="B16" s="4" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>5</v>
@@ -743,16 +709,16 @@
     </row>
     <row r="17">
       <c r="B17" s="4" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>5</v>
@@ -760,16 +726,16 @@
     </row>
     <row r="18">
       <c r="B18" s="4" t="n">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>5</v>
@@ -777,16 +743,16 @@
     </row>
     <row r="19">
       <c r="B19" s="4" t="n">
-        <v>5.7</v>
+        <v>4.3</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>5</v>
@@ -794,16 +760,16 @@
     </row>
     <row r="20">
       <c r="B20" s="4" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>5</v>
@@ -811,16 +777,16 @@
     </row>
     <row r="21">
       <c r="B21" s="4" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>5</v>
@@ -828,16 +794,16 @@
     </row>
     <row r="22">
       <c r="B22" s="4" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>5</v>
@@ -848,10 +814,10 @@
         <v>5.1</v>
       </c>
       <c r="C23" s="4" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="E23" s="4" t="n">
         <v>0.3</v>
@@ -862,16 +828,16 @@
     </row>
     <row r="24">
       <c r="B24" s="4" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="C24" s="4" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D24" s="4" t="n">
         <v>1.7</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>5</v>
@@ -882,13 +848,13 @@
         <v>5.1</v>
       </c>
       <c r="C25" s="4" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D25" s="4" t="n">
         <v>1.5</v>
       </c>
       <c r="E25" s="4" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>5</v>
@@ -896,13 +862,13 @@
     </row>
     <row r="26">
       <c r="B26" s="4" t="n">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="C26" s="4" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="E26" s="4" t="n">
         <v>0.2</v>
@@ -916,13 +882,13 @@
         <v>5.1</v>
       </c>
       <c r="C27" s="4" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>5</v>
@@ -930,13 +896,13 @@
     </row>
     <row r="28">
       <c r="B28" s="4" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="C28" s="4" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="E28" s="4" t="n">
         <v>0.2</v>
@@ -947,16 +913,16 @@
     </row>
     <row r="29">
       <c r="B29" s="4" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="C29" s="4" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>5</v>
@@ -964,16 +930,16 @@
     </row>
     <row r="30">
       <c r="B30" s="4" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>3.4</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>5</v>
@@ -981,13 +947,13 @@
     </row>
     <row r="31">
       <c r="B31" s="4" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="C31" s="4" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D31" s="4" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="E31" s="4" t="n">
         <v>0.2</v>
@@ -998,16 +964,16 @@
     </row>
     <row r="32">
       <c r="B32" s="4" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="C32" s="4" t="n">
         <v>3.4</v>
       </c>
       <c r="D32" s="4" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>5</v>
@@ -1015,13 +981,13 @@
     </row>
     <row r="33">
       <c r="B33" s="4" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="C33" s="4" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D33" s="4" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="E33" s="4" t="n">
         <v>0.2</v>
@@ -1032,13 +998,13 @@
     </row>
     <row r="34">
       <c r="B34" s="4" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="C34" s="4" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D34" s="4" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="E34" s="4" t="n">
         <v>0.2</v>
@@ -1049,16 +1015,16 @@
     </row>
     <row r="35">
       <c r="B35" s="4" t="n">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="C35" s="4" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>5</v>
@@ -1066,16 +1032,16 @@
     </row>
     <row r="36">
       <c r="B36" s="4" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="C36" s="4" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>5</v>
@@ -1083,16 +1049,16 @@
     </row>
     <row r="37">
       <c r="B37" s="4" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="C37" s="4" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>5</v>
@@ -1100,16 +1066,16 @@
     </row>
     <row r="38">
       <c r="B38" s="4" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="D38" s="4" t="n">
         <v>1.5</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>5</v>
@@ -1117,13 +1083,13 @@
     </row>
     <row r="39">
       <c r="B39" s="4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="E39" s="4" t="n">
         <v>0.2</v>
@@ -1134,13 +1100,13 @@
     </row>
     <row r="40">
       <c r="B40" s="4" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="E40" s="4" t="n">
         <v>0.2</v>
@@ -1151,16 +1117,16 @@
     </row>
     <row r="41">
       <c r="B41" s="4" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>5</v>
@@ -1168,10 +1134,10 @@
     </row>
     <row r="42">
       <c r="B42" s="4" t="n">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D42" s="4" t="n">
         <v>1.3</v>
@@ -1185,16 +1151,16 @@
     </row>
     <row r="43">
       <c r="B43" s="4" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>5</v>
@@ -1202,16 +1168,16 @@
     </row>
     <row r="44">
       <c r="B44" s="4" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D44" s="4" t="n">
         <v>1.3</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>5</v>
@@ -1219,16 +1185,16 @@
     </row>
     <row r="45">
       <c r="B45" s="4" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>5</v>
@@ -1236,16 +1202,16 @@
     </row>
     <row r="46">
       <c r="B46" s="4" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D46" s="4" t="n">
         <v>1.3</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>5</v>
@@ -1253,16 +1219,16 @@
     </row>
     <row r="47">
       <c r="B47" s="4" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C47" s="4" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>5</v>
@@ -1270,16 +1236,16 @@
     </row>
     <row r="48">
       <c r="B48" s="4" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="C48" s="4" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>5</v>
@@ -1287,16 +1253,16 @@
     </row>
     <row r="49">
       <c r="B49" s="4" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="C49" s="4" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>5</v>
@@ -1310,10 +1276,10 @@
         <v>3.8</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>5</v>
@@ -1321,16 +1287,16 @@
     </row>
     <row r="51">
       <c r="B51" s="4" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D51" s="4" t="n">
         <v>1.4</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>5</v>
@@ -1338,13 +1304,13 @@
     </row>
     <row r="52">
       <c r="B52" s="4" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="E52" s="4" t="n">
         <v>0.2</v>
@@ -1355,10 +1321,10 @@
     </row>
     <row r="53">
       <c r="B53" s="4" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="C53" s="4" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D53" s="4" t="n">
         <v>1.4</v>
@@ -1372,50 +1338,50 @@
     </row>
     <row r="54">
       <c r="B54" s="4" t="n">
-        <v>7</v>
+        <v>5.3</v>
       </c>
       <c r="C54" s="4" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>4.7</v>
+        <v>1.5</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="4" t="n">
-        <v>6.4</v>
+        <v>5</v>
       </c>
       <c r="C55" s="4" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="4" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="C56" s="4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>6</v>
@@ -1423,16 +1389,16 @@
     </row>
     <row r="57">
       <c r="B57" s="4" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>6</v>
@@ -1440,13 +1406,13 @@
     </row>
     <row r="58">
       <c r="B58" s="4" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="E58" s="4" t="n">
         <v>1.5</v>
@@ -1457,13 +1423,13 @@
     </row>
     <row r="59">
       <c r="B59" s="4" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="D59" s="4" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E59" s="4" t="n">
         <v>1.3</v>
@@ -1474,16 +1440,16 @@
     </row>
     <row r="60">
       <c r="B60" s="4" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="C60" s="4" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="D60" s="4" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="E60" s="4" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>6</v>
@@ -1491,16 +1457,16 @@
     </row>
     <row r="61">
       <c r="B61" s="4" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="C61" s="4" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="D61" s="4" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="E61" s="4" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>6</v>
@@ -1508,16 +1474,16 @@
     </row>
     <row r="62">
       <c r="B62" s="4" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="C62" s="4" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="D62" s="4" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="E62" s="4" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>6</v>
@@ -1525,16 +1491,16 @@
     </row>
     <row r="63">
       <c r="B63" s="4" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="C63" s="4" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="D63" s="4" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="E63" s="4" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>6</v>
@@ -1542,16 +1508,16 @@
     </row>
     <row r="64">
       <c r="B64" s="4" t="n">
-        <v>5</v>
+        <v>6.6</v>
       </c>
       <c r="C64" s="4" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="D64" s="4" t="n">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="E64" s="4" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>6</v>
@@ -1559,16 +1525,16 @@
     </row>
     <row r="65">
       <c r="B65" s="4" t="n">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="C65" s="4" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="D65" s="4" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="E65" s="4" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>6</v>
@@ -1576,13 +1542,13 @@
     </row>
     <row r="66">
       <c r="B66" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C66" s="4" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="D66" s="4" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E66" s="4" t="n">
         <v>1</v>
@@ -1593,16 +1559,16 @@
     </row>
     <row r="67">
       <c r="B67" s="4" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="C67" s="4" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D67" s="4" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="E67" s="4" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>6</v>
@@ -1610,16 +1576,16 @@
     </row>
     <row r="68">
       <c r="B68" s="4" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="C68" s="4" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="D68" s="4" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="E68" s="4" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>6</v>
@@ -1627,13 +1593,13 @@
     </row>
     <row r="69">
       <c r="B69" s="4" t="n">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
       <c r="C69" s="4" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="D69" s="4" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="E69" s="4" t="n">
         <v>1.4</v>
@@ -1647,13 +1613,13 @@
         <v>5.6</v>
       </c>
       <c r="C70" s="4" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="D70" s="4" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="E70" s="4" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>6</v>
@@ -1661,16 +1627,16 @@
     </row>
     <row r="71">
       <c r="B71" s="4" t="n">
-        <v>5.8</v>
+        <v>6.7</v>
       </c>
       <c r="C71" s="4" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D71" s="4" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="E71" s="4" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>6</v>
@@ -1678,10 +1644,10 @@
     </row>
     <row r="72">
       <c r="B72" s="4" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="C72" s="4" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="D72" s="4" t="n">
         <v>4.5</v>
@@ -1695,16 +1661,16 @@
     </row>
     <row r="73">
       <c r="B73" s="4" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="C73" s="4" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="D73" s="4" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="E73" s="4" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>6</v>
@@ -1712,16 +1678,16 @@
     </row>
     <row r="74">
       <c r="B74" s="4" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="C74" s="4" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="D74" s="4" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="E74" s="4" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>6</v>
@@ -1729,16 +1695,16 @@
     </row>
     <row r="75">
       <c r="B75" s="4" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="C75" s="4" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="D75" s="4" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="E75" s="4" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>6</v>
@@ -1746,16 +1712,16 @@
     </row>
     <row r="76">
       <c r="B76" s="4" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="C76" s="4" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="D76" s="4" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="E76" s="4" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>6</v>
@@ -1769,10 +1735,10 @@
         <v>2.8</v>
       </c>
       <c r="D77" s="4" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="E77" s="4" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>6</v>
@@ -1780,16 +1746,16 @@
     </row>
     <row r="78">
       <c r="B78" s="4" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="C78" s="4" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="D78" s="4" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="E78" s="4" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>6</v>
@@ -1797,16 +1763,16 @@
     </row>
     <row r="79">
       <c r="B79" s="4" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="C79" s="4" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="D79" s="4" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="E79" s="4" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>6</v>
@@ -1814,16 +1780,16 @@
     </row>
     <row r="80">
       <c r="B80" s="4" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="C80" s="4" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="D80" s="4" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="E80" s="4" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>6</v>
@@ -1831,16 +1797,16 @@
     </row>
     <row r="81">
       <c r="B81" s="4" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="C81" s="4" t="n">
         <v>3</v>
       </c>
       <c r="D81" s="4" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="E81" s="4" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>6</v>
@@ -1848,16 +1814,16 @@
     </row>
     <row r="82">
       <c r="B82" s="4" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="C82" s="4" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="D82" s="4" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="E82" s="4" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>6</v>
@@ -1865,16 +1831,16 @@
     </row>
     <row r="83">
       <c r="B83" s="4" t="n">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="C83" s="4" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="D83" s="4" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="E83" s="4" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>6</v>
@@ -1882,16 +1848,16 @@
     </row>
     <row r="84">
       <c r="B84" s="4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C84" s="4" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="D84" s="4" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="E84" s="4" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>6</v>
@@ -1899,13 +1865,13 @@
     </row>
     <row r="85">
       <c r="B85" s="4" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="C85" s="4" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="D85" s="4" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="E85" s="4" t="n">
         <v>1</v>
@@ -1916,16 +1882,16 @@
     </row>
     <row r="86">
       <c r="B86" s="4" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="C86" s="4" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="D86" s="4" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="E86" s="4" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>6</v>
@@ -1933,16 +1899,16 @@
     </row>
     <row r="87">
       <c r="B87" s="4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C87" s="4" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="D87" s="4" t="n">
-        <v>5.1</v>
+        <v>3.7</v>
       </c>
       <c r="E87" s="4" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>6</v>
@@ -1950,16 +1916,16 @@
     </row>
     <row r="88">
       <c r="B88" s="4" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="C88" s="4" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="D88" s="4" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="E88" s="4" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>6</v>
@@ -1970,10 +1936,10 @@
         <v>6</v>
       </c>
       <c r="C89" s="4" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="D89" s="4" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="E89" s="4" t="n">
         <v>1.6</v>
@@ -1984,13 +1950,13 @@
     </row>
     <row r="90">
       <c r="B90" s="4" t="n">
-        <v>6.7</v>
+        <v>5.4</v>
       </c>
       <c r="C90" s="4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D90" s="4" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="E90" s="4" t="n">
         <v>1.5</v>
@@ -2001,16 +1967,16 @@
     </row>
     <row r="91">
       <c r="B91" s="4" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="C91" s="4" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="D91" s="4" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="E91" s="4" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>6</v>
@@ -2018,16 +1984,16 @@
     </row>
     <row r="92">
       <c r="B92" s="4" t="n">
-        <v>5.6</v>
+        <v>6.7</v>
       </c>
       <c r="C92" s="4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D92" s="4" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="E92" s="4" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>6</v>
@@ -2035,13 +2001,13 @@
     </row>
     <row r="93">
       <c r="B93" s="4" t="n">
-        <v>5.5</v>
+        <v>6.3</v>
       </c>
       <c r="C93" s="4" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="D93" s="4" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="E93" s="4" t="n">
         <v>1.3</v>
@@ -2052,16 +2018,16 @@
     </row>
     <row r="94">
       <c r="B94" s="4" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="C94" s="4" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="D94" s="4" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="E94" s="4" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>6</v>
@@ -2069,16 +2035,16 @@
     </row>
     <row r="95">
       <c r="B95" s="4" t="n">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="C95" s="4" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D95" s="4" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="E95" s="4" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>6</v>
@@ -2086,13 +2052,13 @@
     </row>
     <row r="96">
       <c r="B96" s="4" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="C96" s="4" t="n">
         <v>2.6</v>
       </c>
       <c r="D96" s="4" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="E96" s="4" t="n">
         <v>1.2</v>
@@ -2103,16 +2069,16 @@
     </row>
     <row r="97">
       <c r="B97" s="4" t="n">
-        <v>5</v>
+        <v>6.1</v>
       </c>
       <c r="C97" s="4" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="D97" s="4" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="E97" s="4" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>6</v>
@@ -2120,16 +2086,16 @@
     </row>
     <row r="98">
       <c r="B98" s="4" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="C98" s="4" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D98" s="4" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="E98" s="4" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>6</v>
@@ -2137,16 +2103,16 @@
     </row>
     <row r="99">
       <c r="B99" s="4" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="C99" s="4" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="D99" s="4" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="E99" s="4" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>6</v>
@@ -2154,10 +2120,10 @@
     </row>
     <row r="100">
       <c r="B100" s="4" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="C100" s="4" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="D100" s="4" t="n">
         <v>4.2</v>
@@ -2171,16 +2137,16 @@
     </row>
     <row r="101">
       <c r="B101" s="4" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="C101" s="4" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D101" s="4" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="E101" s="4" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>6</v>
@@ -2188,16 +2154,16 @@
     </row>
     <row r="102">
       <c r="B102" s="4" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="C102" s="4" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="D102" s="4" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="E102" s="4" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>6</v>
@@ -2205,13 +2171,13 @@
     </row>
     <row r="103">
       <c r="B103" s="4" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="C103" s="4" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="D103" s="4" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="E103" s="4" t="n">
         <v>1.3</v>
@@ -2222,50 +2188,50 @@
     </row>
     <row r="104">
       <c r="B104" s="4" t="n">
-        <v>6.3</v>
+        <v>5.1</v>
       </c>
       <c r="C104" s="4" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="D104" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E104" s="4" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105">
       <c r="B105" s="4" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="C105" s="4" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D105" s="4" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="E105" s="4" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106">
       <c r="B106" s="4" t="n">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
       <c r="C106" s="4" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D106" s="4" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="E106" s="4" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>7</v>
@@ -2273,16 +2239,16 @@
     </row>
     <row r="107">
       <c r="B107" s="4" t="n">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="C107" s="4" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="D107" s="4" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="E107" s="4" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>7</v>
@@ -2290,16 +2256,16 @@
     </row>
     <row r="108">
       <c r="B108" s="4" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="C108" s="4" t="n">
         <v>3</v>
       </c>
       <c r="D108" s="4" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="E108" s="4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>7</v>
@@ -2307,16 +2273,16 @@
     </row>
     <row r="109">
       <c r="B109" s="4" t="n">
-        <v>7.6</v>
+        <v>6.3</v>
       </c>
       <c r="C109" s="4" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="D109" s="4" t="n">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="E109" s="4" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>7</v>
@@ -2324,16 +2290,16 @@
     </row>
     <row r="110">
       <c r="B110" s="4" t="n">
-        <v>4.9</v>
+        <v>6.5</v>
       </c>
       <c r="C110" s="4" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D110" s="4" t="n">
-        <v>4.5</v>
+        <v>5.8</v>
       </c>
       <c r="E110" s="4" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>7</v>
@@ -2341,16 +2307,16 @@
     </row>
     <row r="111">
       <c r="B111" s="4" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="C111" s="4" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D111" s="4" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="E111" s="4" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>7</v>
@@ -2358,16 +2324,16 @@
     </row>
     <row r="112">
       <c r="B112" s="4" t="n">
-        <v>6.7</v>
+        <v>4.9</v>
       </c>
       <c r="C112" s="4" t="n">
         <v>2.5</v>
       </c>
       <c r="D112" s="4" t="n">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="E112" s="4" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>7</v>
@@ -2375,16 +2341,16 @@
     </row>
     <row r="113">
       <c r="B113" s="4" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="C113" s="4" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="D113" s="4" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="E113" s="4" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>7</v>
@@ -2392,16 +2358,16 @@
     </row>
     <row r="114">
       <c r="B114" s="4" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="C114" s="4" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="D114" s="4" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="E114" s="4" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>7</v>
@@ -2409,16 +2375,16 @@
     </row>
     <row r="115">
       <c r="B115" s="4" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="C115" s="4" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D115" s="4" t="n">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="E115" s="4" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>7</v>
@@ -2426,16 +2392,16 @@
     </row>
     <row r="116">
       <c r="B116" s="4" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="C116" s="4" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="D116" s="4" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="E116" s="4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>7</v>
@@ -2443,16 +2409,16 @@
     </row>
     <row r="117">
       <c r="B117" s="4" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="C117" s="4" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="D117" s="4" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="E117" s="4" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>7</v>
@@ -2460,16 +2426,16 @@
     </row>
     <row r="118">
       <c r="B118" s="4" t="n">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="C118" s="4" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="D118" s="4" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="E118" s="4" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>7</v>
@@ -2477,16 +2443,16 @@
     </row>
     <row r="119">
       <c r="B119" s="4" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="C119" s="4" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="D119" s="4" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="E119" s="4" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>7</v>
@@ -2494,16 +2460,16 @@
     </row>
     <row r="120">
       <c r="B120" s="4" t="n">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="C120" s="4" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="D120" s="4" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="E120" s="4" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>7</v>
@@ -2511,16 +2477,16 @@
     </row>
     <row r="121">
       <c r="B121" s="4" t="n">
-        <v>7.7</v>
+        <v>6.4</v>
       </c>
       <c r="C121" s="4" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D121" s="4" t="n">
-        <v>6.7</v>
+        <v>5.3</v>
       </c>
       <c r="E121" s="4" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>7</v>
@@ -2528,16 +2494,16 @@
     </row>
     <row r="122">
       <c r="B122" s="4" t="n">
-        <v>7.7</v>
+        <v>6.5</v>
       </c>
       <c r="C122" s="4" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="D122" s="4" t="n">
-        <v>6.9</v>
+        <v>5.5</v>
       </c>
       <c r="E122" s="4" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>7</v>
@@ -2545,16 +2511,16 @@
     </row>
     <row r="123">
       <c r="B123" s="4" t="n">
-        <v>6</v>
+        <v>7.7</v>
       </c>
       <c r="C123" s="4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D123" s="4" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E123" s="4" t="n">
         <v>2.2</v>
-      </c>
-      <c r="D123" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="E123" s="4" t="n">
-        <v>1.5</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>7</v>
@@ -2562,13 +2528,13 @@
     </row>
     <row r="124">
       <c r="B124" s="4" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C124" s="4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D124" s="4" t="n">
         <v>6.9</v>
-      </c>
-      <c r="C124" s="4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="D124" s="4" t="n">
-        <v>5.7</v>
       </c>
       <c r="E124" s="4" t="n">
         <v>2.3</v>
@@ -2579,16 +2545,16 @@
     </row>
     <row r="125">
       <c r="B125" s="4" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="C125" s="4" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="D125" s="4" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="E125" s="4" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>7</v>
@@ -2596,16 +2562,16 @@
     </row>
     <row r="126">
       <c r="B126" s="4" t="n">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
       <c r="C126" s="4" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="D126" s="4" t="n">
-        <v>6.7</v>
+        <v>5.7</v>
       </c>
       <c r="E126" s="4" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>7</v>
@@ -2613,16 +2579,16 @@
     </row>
     <row r="127">
       <c r="B127" s="4" t="n">
-        <v>6.3</v>
+        <v>5.6</v>
       </c>
       <c r="C127" s="4" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D127" s="4" t="n">
         <v>4.9</v>
       </c>
       <c r="E127" s="4" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>7</v>
@@ -2630,16 +2596,16 @@
     </row>
     <row r="128">
       <c r="B128" s="4" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C128" s="4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D128" s="4" t="n">
         <v>6.7</v>
       </c>
-      <c r="C128" s="4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D128" s="4" t="n">
-        <v>5.7</v>
-      </c>
       <c r="E128" s="4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="F128" s="5" t="s">
         <v>7</v>
@@ -2647,13 +2613,13 @@
     </row>
     <row r="129">
       <c r="B129" s="4" t="n">
-        <v>7.2</v>
+        <v>6.3</v>
       </c>
       <c r="C129" s="4" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D129" s="4" t="n">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="E129" s="4" t="n">
         <v>1.8</v>
@@ -2664,16 +2630,16 @@
     </row>
     <row r="130">
       <c r="B130" s="4" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="C130" s="4" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="D130" s="4" t="n">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="E130" s="4" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>7</v>
@@ -2681,13 +2647,13 @@
     </row>
     <row r="131">
       <c r="B131" s="4" t="n">
-        <v>6.1</v>
+        <v>7.2</v>
       </c>
       <c r="C131" s="4" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="D131" s="4" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="E131" s="4" t="n">
         <v>1.8</v>
@@ -2698,16 +2664,16 @@
     </row>
     <row r="132">
       <c r="B132" s="4" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="C132" s="4" t="n">
         <v>2.8</v>
       </c>
       <c r="D132" s="4" t="n">
-        <v>5.6</v>
+        <v>4.8</v>
       </c>
       <c r="E132" s="4" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>7</v>
@@ -2715,16 +2681,16 @@
     </row>
     <row r="133">
       <c r="B133" s="4" t="n">
-        <v>7.2</v>
+        <v>6.1</v>
       </c>
       <c r="C133" s="4" t="n">
         <v>3</v>
       </c>
       <c r="D133" s="4" t="n">
-        <v>5.8</v>
+        <v>4.9</v>
       </c>
       <c r="E133" s="4" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>7</v>
@@ -2732,16 +2698,16 @@
     </row>
     <row r="134">
       <c r="B134" s="4" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="C134" s="4" t="n">
         <v>2.8</v>
       </c>
       <c r="D134" s="4" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="E134" s="4" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>7</v>
@@ -2749,16 +2715,16 @@
     </row>
     <row r="135">
       <c r="B135" s="4" t="n">
-        <v>7.9</v>
+        <v>7.2</v>
       </c>
       <c r="C135" s="4" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="D135" s="4" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="E135" s="4" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>7</v>
@@ -2766,16 +2732,16 @@
     </row>
     <row r="136">
       <c r="B136" s="4" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="C136" s="4" t="n">
         <v>2.8</v>
       </c>
       <c r="D136" s="4" t="n">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="E136" s="4" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>7</v>
@@ -2783,16 +2749,16 @@
     </row>
     <row r="137">
       <c r="B137" s="4" t="n">
-        <v>6.3</v>
+        <v>7.9</v>
       </c>
       <c r="C137" s="4" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="D137" s="4" t="n">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="E137" s="4" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>7</v>
@@ -2800,16 +2766,16 @@
     </row>
     <row r="138">
       <c r="B138" s="4" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="C138" s="4" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D138" s="4" t="n">
         <v>5.6</v>
       </c>
       <c r="E138" s="4" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>7</v>
@@ -2817,16 +2783,16 @@
     </row>
     <row r="139">
       <c r="B139" s="4" t="n">
-        <v>7.7</v>
+        <v>6.3</v>
       </c>
       <c r="C139" s="4" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="D139" s="4" t="n">
-        <v>6.1</v>
+        <v>5.1</v>
       </c>
       <c r="E139" s="4" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>7</v>
@@ -2834,16 +2800,16 @@
     </row>
     <row r="140">
       <c r="B140" s="4" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="C140" s="4" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="D140" s="4" t="n">
         <v>5.6</v>
       </c>
       <c r="E140" s="4" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>7</v>
@@ -2851,16 +2817,16 @@
     </row>
     <row r="141">
       <c r="B141" s="4" t="n">
-        <v>6.4</v>
+        <v>7.7</v>
       </c>
       <c r="C141" s="4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D141" s="4" t="n">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="E141" s="4" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>7</v>
@@ -2868,16 +2834,16 @@
     </row>
     <row r="142">
       <c r="B142" s="4" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="C142" s="4" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="D142" s="4" t="n">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="E142" s="4" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>7</v>
@@ -2885,16 +2851,16 @@
     </row>
     <row r="143">
       <c r="B143" s="4" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="C143" s="4" t="n">
         <v>3.1</v>
       </c>
       <c r="D143" s="4" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="E143" s="4" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>7</v>
@@ -2902,16 +2868,16 @@
     </row>
     <row r="144">
       <c r="B144" s="4" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="C144" s="4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D144" s="4" t="n">
-        <v>5.6</v>
+        <v>4.8</v>
       </c>
       <c r="E144" s="4" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>7</v>
@@ -2925,10 +2891,10 @@
         <v>3.1</v>
       </c>
       <c r="D145" s="4" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="E145" s="4" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="F145" s="5" t="s">
         <v>7</v>
@@ -2936,16 +2902,16 @@
     </row>
     <row r="146">
       <c r="B146" s="4" t="n">
-        <v>5.8</v>
+        <v>6.7</v>
       </c>
       <c r="C146" s="4" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D146" s="4" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="E146" s="4" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="F146" s="5" t="s">
         <v>7</v>
@@ -2953,13 +2919,13 @@
     </row>
     <row r="147">
       <c r="B147" s="4" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="C147" s="4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D147" s="4" t="n">
-        <v>5.9</v>
+        <v>5.1</v>
       </c>
       <c r="E147" s="4" t="n">
         <v>2.3</v>
@@ -2970,16 +2936,16 @@
     </row>
     <row r="148">
       <c r="B148" s="4" t="n">
-        <v>6.7</v>
+        <v>5.8</v>
       </c>
       <c r="C148" s="4" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D148" s="4" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="E148" s="4" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>7</v>
@@ -2987,13 +2953,13 @@
     </row>
     <row r="149">
       <c r="B149" s="4" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="C149" s="4" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="D149" s="4" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="E149" s="4" t="n">
         <v>2.3</v>
@@ -3004,16 +2970,16 @@
     </row>
     <row r="150">
       <c r="B150" s="4" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="C150" s="4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D150" s="4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="E150" s="4" t="n">
         <v>2.5</v>
-      </c>
-      <c r="D150" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="E150" s="4" t="n">
-        <v>1.9</v>
       </c>
       <c r="F150" s="5" t="s">
         <v>7</v>
@@ -3021,7 +2987,7 @@
     </row>
     <row r="151">
       <c r="B151" s="4" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="C151" s="4" t="n">
         <v>3</v>
@@ -3030,7 +2996,7 @@
         <v>5.2</v>
       </c>
       <c r="E151" s="4" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="F151" s="5" t="s">
         <v>7</v>
@@ -3038,53 +3004,87 @@
     </row>
     <row r="152">
       <c r="B152" s="4" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C152" s="4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D152" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E152" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" s="4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C153" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D153" s="4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E153" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154" s="4" t="n">
         <v>6.2</v>
       </c>
-      <c r="C152" s="4" t="n">
+      <c r="C154" s="4" t="n">
         <v>3.4</v>
       </c>
-      <c r="D152" s="4" t="n">
+      <c r="D154" s="4" t="n">
         <v>5.4</v>
       </c>
-      <c r="E152" s="4" t="n">
+      <c r="E154" s="4" t="n">
         <v>2.3</v>
       </c>
-      <c r="F152" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="B153" s="6" t="n">
+      <c r="F154" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="B155" s="6" t="n">
         <v>5.9</v>
       </c>
-      <c r="C153" s="6" t="n">
+      <c r="C155" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="D153" s="6" t="n">
+      <c r="D155" s="6" t="n">
         <v>5.1</v>
       </c>
-      <c r="E153" s="6" t="n">
+      <c r="E155" s="6" t="n">
         <v>1.8</v>
       </c>
-      <c r="F153" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="B155" s="2" t="s">
+      <c r="F155" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="B157" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="156">
-      <c r="B156" s="2" t="s">
+    <row r="158">
+      <c r="B158" s="2" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B155:F155"/>
-    <mergeCell ref="B156:F156"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B157:F157"/>
+    <mergeCell ref="B158:F158"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -3099,250 +3099,212 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="s">
+    <row r="3">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" s="3" t="s">
+    <row r="5">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="8" t="n">
-        <v>41</v>
-      </c>
-      <c r="C4" s="8" t="n">
-        <v>190</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="E4" s="8" t="n">
-        <v>67</v>
-      </c>
-      <c r="F4" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="8" t="n">
-        <v>36</v>
-      </c>
-      <c r="C5" s="8" t="n">
-        <v>118</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="E5" s="8" t="n">
-        <v>72</v>
-      </c>
-      <c r="F5" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" s="8" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="8" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C6" s="8" t="n">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>12.6</v>
+        <v>7.4</v>
       </c>
       <c r="E6" s="8" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F6" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G6" s="8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C7" s="8" t="n">
-        <v>313</v>
+        <v>118</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F7" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G7" s="8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C8" s="8" t="n">
+        <v>149</v>
+      </c>
       <c r="D8" s="4" t="n">
-        <v>14.3</v>
+        <v>12.6</v>
       </c>
       <c r="E8" s="8" t="n">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="F8" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G8" s="8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="n">
-        <v>28</v>
-      </c>
-      <c r="C9" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>313</v>
+      </c>
       <c r="D9" s="4" t="n">
-        <v>14.9</v>
+        <v>11.5</v>
       </c>
       <c r="E9" s="8" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F9" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G9" s="8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="8" t="n">
-        <v>23</v>
-      </c>
-      <c r="C10" s="8" t="n">
-        <v>299</v>
-      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="4" t="n">
-        <v>8.6</v>
+        <v>14.3</v>
       </c>
       <c r="E10" s="8" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F10" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G10" s="8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="8" t="n">
-        <v>19</v>
-      </c>
-      <c r="C11" s="8" t="n">
-        <v>99</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C11" s="8"/>
       <c r="D11" s="4" t="n">
-        <v>13.8</v>
+        <v>14.9</v>
       </c>
       <c r="E11" s="8" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F11" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G11" s="8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>299</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="E12" s="8" t="n">
+        <v>65</v>
+      </c>
+      <c r="F12" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" s="8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>99</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E13" s="8" t="n">
+        <v>59</v>
+      </c>
+      <c r="F13" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" s="8" t="n">
         <v>8</v>
-      </c>
-      <c r="C12" s="8" t="n">
-        <v>19</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="E12" s="8" t="n">
-        <v>61</v>
-      </c>
-      <c r="F12" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="G12" s="8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8" t="n">
-        <v>194</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="E13" s="8" t="n">
-        <v>69</v>
-      </c>
-      <c r="F13" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="G13" s="8" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>19</v>
+      </c>
       <c r="D14" s="4" t="n">
-        <v>6.9</v>
+        <v>20.1</v>
       </c>
       <c r="E14" s="8" t="n">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F14" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G14" s="8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="8" t="n">
-        <v>16</v>
-      </c>
+      <c r="B15" s="8"/>
       <c r="C15" s="8" t="n">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>9.7</v>
+        <v>8.6</v>
       </c>
       <c r="E15" s="8" t="n">
         <v>69</v>
@@ -3351,67 +3313,65 @@
         <v>5</v>
       </c>
       <c r="G15" s="8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="4" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E16" s="8" t="n">
+        <v>74</v>
+      </c>
+      <c r="F16" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" s="8" t="n">
         <v>11</v>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>290</v>
-      </c>
-      <c r="D16" s="4" t="n">
-        <v>9.2</v>
-      </c>
-      <c r="E16" s="8" t="n">
-        <v>66</v>
-      </c>
-      <c r="F16" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="G16" s="8" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C17" s="8" t="n">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>10.9</v>
+        <v>9.7</v>
       </c>
       <c r="E17" s="8" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F17" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G17" s="8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="8" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C18" s="8" t="n">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>13.2</v>
+        <v>9.2</v>
       </c>
       <c r="E18" s="8" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F18" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G18" s="8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -3419,119 +3379,119 @@
         <v>14</v>
       </c>
       <c r="C19" s="8" t="n">
-        <v>334</v>
+        <v>274</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>11.5</v>
+        <v>10.9</v>
       </c>
       <c r="E19" s="8" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F19" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G19" s="8" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="8" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C20" s="8" t="n">
-        <v>307</v>
+        <v>65</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>12</v>
+        <v>13.2</v>
       </c>
       <c r="E20" s="8" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F20" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G20" s="8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="8" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C21" s="8" t="n">
-        <v>78</v>
+        <v>334</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>18.4</v>
+        <v>11.5</v>
       </c>
       <c r="E21" s="8" t="n">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F21" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G21" s="8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="8" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C22" s="8" t="n">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="E22" s="8" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F22" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G22" s="8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="8" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C23" s="8" t="n">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>9.7</v>
+        <v>18.4</v>
       </c>
       <c r="E23" s="8" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F23" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G23" s="8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="8" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C24" s="8" t="n">
-        <v>8</v>
+        <v>322</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>9.7</v>
+        <v>11.5</v>
       </c>
       <c r="E24" s="8" t="n">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F24" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G24" s="8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
@@ -3539,102 +3499,108 @@
         <v>11</v>
       </c>
       <c r="C25" s="8" t="n">
-        <v>320</v>
+        <v>44</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>16.6</v>
+        <v>9.7</v>
       </c>
       <c r="E25" s="8" t="n">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F25" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G25" s="8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C26" s="8" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D26" s="4" t="n">
         <v>9.7</v>
       </c>
       <c r="E26" s="8" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F26" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G26" s="8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>320</v>
+      </c>
+      <c r="D27" s="4" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>73</v>
+      </c>
+      <c r="F27" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D28" s="4" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>61</v>
+      </c>
+      <c r="F28" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="8" t="n">
         <v>32</v>
       </c>
-      <c r="C27" s="8" t="n">
+      <c r="C29" s="8" t="n">
         <v>92</v>
       </c>
-      <c r="D27" s="4" t="n">
+      <c r="D29" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="E27" s="8" t="n">
+      <c r="E29" s="8" t="n">
         <v>61</v>
       </c>
-      <c r="F27" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="G27" s="8" t="n">
+      <c r="F29" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G29" s="8" t="n">
         <v>24</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8" t="n">
-        <v>66</v>
-      </c>
-      <c r="D28" s="4" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="E28" s="8" t="n">
-        <v>57</v>
-      </c>
-      <c r="F28" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="G28" s="8" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8" t="n">
-        <v>266</v>
-      </c>
-      <c r="D29" s="4" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E29" s="8" t="n">
-        <v>58</v>
-      </c>
-      <c r="F29" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="G29" s="8" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
+      <c r="C30" s="8" t="n">
+        <v>66</v>
+      </c>
       <c r="D30" s="4" t="n">
-        <v>8</v>
+        <v>16.6</v>
       </c>
       <c r="E30" s="8" t="n">
         <v>57</v>
@@ -3643,264 +3609,258 @@
         <v>5</v>
       </c>
       <c r="G30" s="8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="n">
+        <v>266</v>
+      </c>
+      <c r="D31" s="4" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>58</v>
+      </c>
+      <c r="F31" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>57</v>
+      </c>
+      <c r="F32" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G32" s="8" t="n">
         <v>27</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="8" t="n">
-        <v>23</v>
-      </c>
-      <c r="C31" s="8" t="n">
-        <v>13</v>
-      </c>
-      <c r="D31" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="E31" s="8" t="n">
-        <v>67</v>
-      </c>
-      <c r="F31" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="G31" s="8" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="8" t="n">
-        <v>45</v>
-      </c>
-      <c r="C32" s="8" t="n">
-        <v>252</v>
-      </c>
-      <c r="D32" s="4" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E32" s="8" t="n">
-        <v>81</v>
-      </c>
-      <c r="F32" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="G32" s="8" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="8" t="n">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="C33" s="8" t="n">
-        <v>223</v>
+        <v>13</v>
       </c>
       <c r="D33" s="4" t="n">
-        <v>5.7</v>
+        <v>12</v>
       </c>
       <c r="E33" s="8" t="n">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F33" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G33" s="8" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="8" t="n">
+        <v>45</v>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>252</v>
+      </c>
+      <c r="D34" s="4" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>81</v>
+      </c>
+      <c r="F34" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="8" t="n">
+        <v>115</v>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>223</v>
+      </c>
+      <c r="D35" s="4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>79</v>
+      </c>
+      <c r="F35" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="8" t="n">
         <v>37</v>
       </c>
-      <c r="C34" s="8" t="n">
+      <c r="C36" s="8" t="n">
         <v>279</v>
       </c>
-      <c r="D34" s="4" t="n">
+      <c r="D36" s="4" t="n">
         <v>7.4</v>
       </c>
-      <c r="E34" s="8" t="n">
+      <c r="E36" s="8" t="n">
         <v>76</v>
       </c>
-      <c r="F34" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="G34" s="8" t="n">
+      <c r="F36" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G36" s="8" t="n">
         <v>31</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" s="8"/>
-      <c r="C35" s="8" t="n">
-        <v>286</v>
-      </c>
-      <c r="D35" s="4" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="E35" s="8" t="n">
-        <v>78</v>
-      </c>
-      <c r="F35" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="G35" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" s="8"/>
-      <c r="C36" s="8" t="n">
-        <v>287</v>
-      </c>
-      <c r="D36" s="4" t="n">
-        <v>9.7</v>
-      </c>
-      <c r="E36" s="8" t="n">
-        <v>74</v>
-      </c>
-      <c r="F36" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="G36" s="8" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="n">
-        <v>242</v>
+        <v>286</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>16.1</v>
+        <v>8.6</v>
       </c>
       <c r="E37" s="8" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F37" s="8" t="n">
         <v>6</v>
       </c>
       <c r="G37" s="8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="8"/>
       <c r="C38" s="8" t="n">
-        <v>186</v>
+        <v>287</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>9.2</v>
+        <v>9.7</v>
       </c>
       <c r="E38" s="8" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F38" s="8" t="n">
         <v>6</v>
       </c>
       <c r="G38" s="8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="8"/>
       <c r="C39" s="8" t="n">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>8.6</v>
+        <v>16.1</v>
       </c>
       <c r="E39" s="8" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F39" s="8" t="n">
         <v>6</v>
       </c>
       <c r="G39" s="8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="8"/>
       <c r="C40" s="8" t="n">
-        <v>264</v>
+        <v>186</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>14.3</v>
+        <v>9.2</v>
       </c>
       <c r="E40" s="8" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F40" s="8" t="n">
         <v>6</v>
       </c>
       <c r="G40" s="8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
-      <c r="B41" s="8" t="n">
-        <v>29</v>
-      </c>
+      <c r="B41" s="8"/>
       <c r="C41" s="8" t="n">
-        <v>127</v>
+        <v>220</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>9.7</v>
+        <v>8.6</v>
       </c>
       <c r="E41" s="8" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F41" s="8" t="n">
         <v>6</v>
       </c>
       <c r="G41" s="8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="8"/>
       <c r="C42" s="8" t="n">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>6.9</v>
+        <v>14.3</v>
       </c>
       <c r="E42" s="8" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F42" s="8" t="n">
         <v>6</v>
       </c>
       <c r="G42" s="8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="8" t="n">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="C43" s="8" t="n">
-        <v>291</v>
+        <v>127</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>13.8</v>
+        <v>9.7</v>
       </c>
       <c r="E43" s="8" t="n">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F43" s="8" t="n">
         <v>6</v>
       </c>
       <c r="G43" s="8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
-      <c r="B44" s="8" t="n">
-        <v>39</v>
-      </c>
+      <c r="B44" s="8"/>
       <c r="C44" s="8" t="n">
-        <v>323</v>
+        <v>273</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>11.5</v>
+        <v>6.9</v>
       </c>
       <c r="E44" s="8" t="n">
         <v>87</v>
@@ -3909,226 +3869,230 @@
         <v>6</v>
       </c>
       <c r="G44" s="8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="8" t="n">
+        <v>71</v>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>291</v>
+      </c>
+      <c r="D45" s="4" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>90</v>
+      </c>
+      <c r="F45" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="8" t="n">
+        <v>39</v>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>323</v>
+      </c>
+      <c r="D46" s="4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>87</v>
+      </c>
+      <c r="F46" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G46" s="8" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="45">
-      <c r="B45" s="8"/>
-      <c r="C45" s="8" t="n">
+    <row r="47">
+      <c r="B47" s="8"/>
+      <c r="C47" s="8" t="n">
         <v>259</v>
       </c>
-      <c r="D45" s="4" t="n">
+      <c r="D47" s="4" t="n">
         <v>10.9</v>
       </c>
-      <c r="E45" s="8" t="n">
+      <c r="E47" s="8" t="n">
         <v>93</v>
       </c>
-      <c r="F45" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="G45" s="8" t="n">
+      <c r="F47" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G47" s="8" t="n">
         <v>11</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" s="8"/>
-      <c r="C46" s="8" t="n">
-        <v>250</v>
-      </c>
-      <c r="D46" s="4" t="n">
-        <v>9.2</v>
-      </c>
-      <c r="E46" s="8" t="n">
-        <v>92</v>
-      </c>
-      <c r="F46" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="G46" s="8" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" s="8" t="n">
-        <v>23</v>
-      </c>
-      <c r="C47" s="8" t="n">
-        <v>148</v>
-      </c>
-      <c r="D47" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="E47" s="8" t="n">
-        <v>82</v>
-      </c>
-      <c r="F47" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="G47" s="8" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="8"/>
       <c r="C48" s="8" t="n">
+        <v>250</v>
+      </c>
+      <c r="D48" s="4" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>92</v>
+      </c>
+      <c r="F48" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>148</v>
+      </c>
+      <c r="D49" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>82</v>
+      </c>
+      <c r="F49" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="8"/>
+      <c r="C50" s="8" t="n">
         <v>332</v>
       </c>
-      <c r="D48" s="4" t="n">
+      <c r="D50" s="4" t="n">
         <v>13.8</v>
       </c>
-      <c r="E48" s="8" t="n">
+      <c r="E50" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="F48" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="G48" s="8" t="n">
+      <c r="F50" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G50" s="8" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="49">
-      <c r="B49" s="8"/>
-      <c r="C49" s="8" t="n">
+    <row r="51">
+      <c r="B51" s="8"/>
+      <c r="C51" s="8" t="n">
         <v>322</v>
       </c>
-      <c r="D49" s="4" t="n">
+      <c r="D51" s="4" t="n">
         <v>11.5</v>
       </c>
-      <c r="E49" s="8" t="n">
+      <c r="E51" s="8" t="n">
         <v>79</v>
       </c>
-      <c r="F49" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="G49" s="8" t="n">
+      <c r="F51" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G51" s="8" t="n">
         <v>15</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" s="8" t="n">
-        <v>21</v>
-      </c>
-      <c r="C50" s="8" t="n">
-        <v>191</v>
-      </c>
-      <c r="D50" s="4" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E50" s="8" t="n">
-        <v>77</v>
-      </c>
-      <c r="F50" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="G50" s="8" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" s="8" t="n">
-        <v>37</v>
-      </c>
-      <c r="C51" s="8" t="n">
-        <v>284</v>
-      </c>
-      <c r="D51" s="4" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E51" s="8" t="n">
-        <v>72</v>
-      </c>
-      <c r="F51" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="G51" s="8" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" s="8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C52" s="8" t="n">
-        <v>37</v>
+        <v>191</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>9.2</v>
+        <v>14.9</v>
       </c>
       <c r="E52" s="8" t="n">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F52" s="8" t="n">
         <v>6</v>
       </c>
       <c r="G52" s="8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" s="8" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C53" s="8" t="n">
-        <v>120</v>
+        <v>284</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>11.5</v>
+        <v>20.7</v>
       </c>
       <c r="E53" s="8" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F53" s="8" t="n">
         <v>6</v>
       </c>
       <c r="G53" s="8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>37</v>
+      </c>
+      <c r="D54" s="4" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>65</v>
+      </c>
+      <c r="F54" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C55" s="8" t="n">
+        <v>120</v>
+      </c>
+      <c r="D55" s="4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E55" s="8" t="n">
+        <v>73</v>
+      </c>
+      <c r="F55" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G55" s="8" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="C54" s="8" t="n">
+      <c r="C56" s="8" t="n">
         <v>137</v>
       </c>
-      <c r="D54" s="4" t="n">
+      <c r="D56" s="4" t="n">
         <v>10.3</v>
-      </c>
-      <c r="E54" s="8" t="n">
-        <v>76</v>
-      </c>
-      <c r="F54" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="G54" s="8" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" s="8"/>
-      <c r="C55" s="8" t="n">
-        <v>150</v>
-      </c>
-      <c r="D55" s="4" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="E55" s="8" t="n">
-        <v>77</v>
-      </c>
-      <c r="F55" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="G55" s="8" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" s="8"/>
-      <c r="C56" s="8" t="n">
-        <v>59</v>
-      </c>
-      <c r="D56" s="4" t="n">
-        <v>1.7</v>
       </c>
       <c r="E56" s="8" t="n">
         <v>76</v>
@@ -4137,34 +4101,34 @@
         <v>6</v>
       </c>
       <c r="G56" s="8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" s="8"/>
       <c r="C57" s="8" t="n">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>4.6</v>
+        <v>6.3</v>
       </c>
       <c r="E57" s="8" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F57" s="8" t="n">
         <v>6</v>
       </c>
       <c r="G57" s="8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" s="8"/>
       <c r="C58" s="8" t="n">
-        <v>250</v>
+        <v>59</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>6.3</v>
+        <v>1.7</v>
       </c>
       <c r="E58" s="8" t="n">
         <v>76</v>
@@ -4173,676 +4137,672 @@
         <v>6</v>
       </c>
       <c r="G58" s="8" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" s="8"/>
       <c r="C59" s="8" t="n">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="D59" s="4" t="n">
-        <v>8</v>
+        <v>4.6</v>
       </c>
       <c r="E59" s="8" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F59" s="8" t="n">
         <v>6</v>
       </c>
       <c r="G59" s="8" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" s="8"/>
       <c r="C60" s="8" t="n">
-        <v>127</v>
+        <v>250</v>
       </c>
       <c r="D60" s="4" t="n">
-        <v>8</v>
+        <v>6.3</v>
       </c>
       <c r="E60" s="8" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F60" s="8" t="n">
         <v>6</v>
       </c>
       <c r="G60" s="8" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" s="8"/>
       <c r="C61" s="8" t="n">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="D61" s="4" t="n">
-        <v>10.3</v>
+        <v>8</v>
       </c>
       <c r="E61" s="8" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F61" s="8" t="n">
         <v>6</v>
       </c>
       <c r="G61" s="8" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" s="8"/>
       <c r="C62" s="8" t="n">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="D62" s="4" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="E62" s="8" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F62" s="8" t="n">
         <v>6</v>
       </c>
       <c r="G62" s="8" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="8"/>
       <c r="C63" s="8" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D63" s="4" t="n">
-        <v>14.9</v>
+        <v>10.3</v>
       </c>
       <c r="E63" s="8" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F63" s="8" t="n">
         <v>6</v>
       </c>
       <c r="G63" s="8" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="8"/>
       <c r="C64" s="8" t="n">
+        <v>98</v>
+      </c>
+      <c r="D64" s="4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>80</v>
+      </c>
+      <c r="F64" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="8"/>
+      <c r="C65" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="D65" s="4" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>77</v>
+      </c>
+      <c r="F65" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="8"/>
+      <c r="C66" s="8" t="n">
         <v>138</v>
       </c>
-      <c r="D64" s="4" t="n">
+      <c r="D66" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="E64" s="8" t="n">
+      <c r="E66" s="8" t="n">
         <v>83</v>
       </c>
-      <c r="F64" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="G64" s="8" t="n">
+      <c r="F66" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G66" s="8" t="n">
         <v>30</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="B65" s="8" t="n">
-        <v>135</v>
-      </c>
-      <c r="C65" s="8" t="n">
-        <v>269</v>
-      </c>
-      <c r="D65" s="4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="E65" s="8" t="n">
-        <v>84</v>
-      </c>
-      <c r="F65" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="G65" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="B66" s="8" t="n">
-        <v>49</v>
-      </c>
-      <c r="C66" s="8" t="n">
-        <v>248</v>
-      </c>
-      <c r="D66" s="4" t="n">
-        <v>9.2</v>
-      </c>
-      <c r="E66" s="8" t="n">
-        <v>85</v>
-      </c>
-      <c r="F66" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="G66" s="8" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" s="8" t="n">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="C67" s="8" t="n">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="D67" s="4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>84</v>
+      </c>
+      <c r="F67" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" s="8" t="n">
+        <v>49</v>
+      </c>
+      <c r="C68" s="8" t="n">
+        <v>248</v>
+      </c>
+      <c r="D68" s="4" t="n">
         <v>9.2</v>
       </c>
-      <c r="E67" s="8" t="n">
-        <v>81</v>
-      </c>
-      <c r="F67" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="G67" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="B68" s="8"/>
-      <c r="C68" s="8" t="n">
-        <v>101</v>
-      </c>
-      <c r="D68" s="4" t="n">
-        <v>10.9</v>
-      </c>
       <c r="E68" s="8" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F68" s="8" t="n">
         <v>7</v>
       </c>
       <c r="G68" s="8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" s="8" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C69" s="8" t="n">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="D69" s="4" t="n">
-        <v>4.6</v>
+        <v>9.2</v>
       </c>
       <c r="E69" s="8" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F69" s="8" t="n">
         <v>7</v>
       </c>
       <c r="G69" s="8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
-      <c r="B70" s="8" t="n">
-        <v>40</v>
-      </c>
+      <c r="B70" s="8"/>
       <c r="C70" s="8" t="n">
-        <v>314</v>
+        <v>101</v>
       </c>
       <c r="D70" s="4" t="n">
         <v>10.9</v>
       </c>
       <c r="E70" s="8" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F70" s="8" t="n">
         <v>7</v>
       </c>
       <c r="G70" s="8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" s="8" t="n">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C71" s="8" t="n">
-        <v>276</v>
+        <v>175</v>
       </c>
       <c r="D71" s="4" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="E71" s="8" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F71" s="8" t="n">
         <v>7</v>
       </c>
       <c r="G71" s="8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" s="8" t="n">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="C72" s="8" t="n">
-        <v>267</v>
+        <v>314</v>
       </c>
       <c r="D72" s="4" t="n">
-        <v>6.3</v>
+        <v>10.9</v>
       </c>
       <c r="E72" s="8" t="n">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F72" s="8" t="n">
         <v>7</v>
       </c>
       <c r="G72" s="8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" s="8" t="n">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C73" s="8" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D73" s="4" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="E73" s="8" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F73" s="8" t="n">
         <v>7</v>
       </c>
       <c r="G73" s="8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" s="8" t="n">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C74" s="8" t="n">
-        <v>175</v>
+        <v>267</v>
       </c>
       <c r="D74" s="4" t="n">
-        <v>7.4</v>
+        <v>6.3</v>
       </c>
       <c r="E74" s="8" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F74" s="8" t="n">
         <v>7</v>
       </c>
       <c r="G74" s="8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
-      <c r="B75" s="8"/>
+      <c r="B75" s="8" t="n">
+        <v>97</v>
+      </c>
       <c r="C75" s="8" t="n">
-        <v>139</v>
+        <v>272</v>
       </c>
       <c r="D75" s="4" t="n">
-        <v>8.6</v>
+        <v>5.7</v>
       </c>
       <c r="E75" s="8" t="n">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F75" s="8" t="n">
         <v>7</v>
       </c>
       <c r="G75" s="8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" s="8" t="n">
+        <v>85</v>
+      </c>
+      <c r="C76" s="8" t="n">
+        <v>175</v>
+      </c>
+      <c r="D76" s="4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E76" s="8" t="n">
+        <v>89</v>
+      </c>
+      <c r="F76" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="G76" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="C76" s="8" t="n">
+    </row>
+    <row r="77">
+      <c r="B77" s="8"/>
+      <c r="C77" s="8" t="n">
+        <v>139</v>
+      </c>
+      <c r="D77" s="4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="E77" s="8" t="n">
+        <v>82</v>
+      </c>
+      <c r="F77" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="G77" s="8" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C78" s="8" t="n">
         <v>264</v>
       </c>
-      <c r="D76" s="4" t="n">
+      <c r="D78" s="4" t="n">
         <v>14.3</v>
       </c>
-      <c r="E76" s="8" t="n">
+      <c r="E78" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="F76" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="G76" s="8" t="n">
+      <c r="F78" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="G78" s="8" t="n">
         <v>12</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="B77" s="8" t="n">
-        <v>27</v>
-      </c>
-      <c r="C77" s="8" t="n">
-        <v>175</v>
-      </c>
-      <c r="D77" s="4" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E77" s="8" t="n">
-        <v>81</v>
-      </c>
-      <c r="F77" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="G77" s="8" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="B78" s="8"/>
-      <c r="C78" s="8" t="n">
-        <v>291</v>
-      </c>
-      <c r="D78" s="4" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E78" s="8" t="n">
-        <v>91</v>
-      </c>
-      <c r="F78" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="G78" s="8" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" s="8" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C79" s="8" t="n">
-        <v>48</v>
+        <v>175</v>
       </c>
       <c r="D79" s="4" t="n">
-        <v>14.3</v>
+        <v>14.9</v>
       </c>
       <c r="E79" s="8" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F79" s="8" t="n">
         <v>7</v>
       </c>
       <c r="G79" s="8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80">
-      <c r="B80" s="8" t="n">
-        <v>48</v>
-      </c>
+      <c r="B80" s="8"/>
       <c r="C80" s="8" t="n">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="D80" s="4" t="n">
-        <v>6.9</v>
+        <v>14.9</v>
       </c>
       <c r="E80" s="8" t="n">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F80" s="8" t="n">
         <v>7</v>
       </c>
       <c r="G80" s="8" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" s="8" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C81" s="8" t="n">
-        <v>274</v>
+        <v>48</v>
       </c>
       <c r="D81" s="4" t="n">
-        <v>10.3</v>
+        <v>14.3</v>
       </c>
       <c r="E81" s="8" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F81" s="8" t="n">
         <v>7</v>
       </c>
       <c r="G81" s="8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" s="8" t="n">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C82" s="8" t="n">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="D82" s="4" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="E82" s="8" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F82" s="8" t="n">
         <v>7</v>
       </c>
       <c r="G82" s="8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" s="8" t="n">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="C83" s="8" t="n">
-        <v>187</v>
+        <v>274</v>
       </c>
       <c r="D83" s="4" t="n">
-        <v>5.1</v>
+        <v>10.3</v>
       </c>
       <c r="E83" s="8" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F83" s="8" t="n">
         <v>7</v>
       </c>
       <c r="G83" s="8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" s="8" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C84" s="8" t="n">
-        <v>220</v>
+        <v>285</v>
       </c>
       <c r="D84" s="4" t="n">
-        <v>11.5</v>
+        <v>6.3</v>
       </c>
       <c r="E84" s="8" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F84" s="8" t="n">
         <v>7</v>
       </c>
       <c r="G84" s="8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" s="8" t="n">
+        <v>79</v>
+      </c>
+      <c r="C85" s="8" t="n">
+        <v>187</v>
+      </c>
+      <c r="D85" s="4" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E85" s="8" t="n">
+        <v>87</v>
+      </c>
+      <c r="F85" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="G85" s="8" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" s="8" t="n">
+        <v>63</v>
+      </c>
+      <c r="C86" s="8" t="n">
+        <v>220</v>
+      </c>
+      <c r="D86" s="4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E86" s="8" t="n">
+        <v>85</v>
+      </c>
+      <c r="F86" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="G86" s="8" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="C85" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="D85" s="4" t="n">
+      <c r="C87" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D87" s="4" t="n">
         <v>6.9</v>
       </c>
-      <c r="E85" s="8" t="n">
+      <c r="E87" s="8" t="n">
         <v>74</v>
       </c>
-      <c r="F85" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="G85" s="8" t="n">
+      <c r="F87" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="G87" s="8" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="86">
-      <c r="B86" s="8"/>
-      <c r="C86" s="8" t="n">
+    <row r="88">
+      <c r="B88" s="8"/>
+      <c r="C88" s="8" t="n">
         <v>258</v>
       </c>
-      <c r="D86" s="4" t="n">
+      <c r="D88" s="4" t="n">
         <v>9.7</v>
       </c>
-      <c r="E86" s="8" t="n">
+      <c r="E88" s="8" t="n">
         <v>81</v>
       </c>
-      <c r="F86" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="G86" s="8" t="n">
+      <c r="F88" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="G88" s="8" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="87">
-      <c r="B87" s="8"/>
-      <c r="C87" s="8" t="n">
+    <row r="89">
+      <c r="B89" s="8"/>
+      <c r="C89" s="8" t="n">
         <v>295</v>
       </c>
-      <c r="D87" s="4" t="n">
+      <c r="D89" s="4" t="n">
         <v>11.5</v>
       </c>
-      <c r="E87" s="8" t="n">
+      <c r="E89" s="8" t="n">
         <v>82</v>
       </c>
-      <c r="F87" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="G87" s="8" t="n">
+      <c r="F89" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="G89" s="8" t="n">
         <v>23</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="B88" s="8" t="n">
-        <v>80</v>
-      </c>
-      <c r="C88" s="8" t="n">
-        <v>294</v>
-      </c>
-      <c r="D88" s="4" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="E88" s="8" t="n">
-        <v>86</v>
-      </c>
-      <c r="F88" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="G88" s="8" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="B89" s="8" t="n">
-        <v>108</v>
-      </c>
-      <c r="C89" s="8" t="n">
-        <v>223</v>
-      </c>
-      <c r="D89" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="E89" s="8" t="n">
-        <v>85</v>
-      </c>
-      <c r="F89" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="G89" s="8" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" s="8" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C90" s="8" t="n">
-        <v>81</v>
+        <v>294</v>
       </c>
       <c r="D90" s="4" t="n">
         <v>8.6</v>
       </c>
       <c r="E90" s="8" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F90" s="8" t="n">
         <v>7</v>
       </c>
       <c r="G90" s="8" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91">
       <c r="B91" s="8" t="n">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="C91" s="8" t="n">
-        <v>82</v>
+        <v>223</v>
       </c>
       <c r="D91" s="4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E91" s="8" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F91" s="8" t="n">
         <v>7</v>
       </c>
       <c r="G91" s="8" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92">
       <c r="B92" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C92" s="8" t="n">
+        <v>81</v>
+      </c>
+      <c r="D92" s="4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="E92" s="8" t="n">
         <v>82</v>
       </c>
-      <c r="C92" s="8" t="n">
-        <v>213</v>
-      </c>
-      <c r="D92" s="4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="E92" s="8" t="n">
-        <v>88</v>
-      </c>
       <c r="F92" s="8" t="n">
         <v>7</v>
       </c>
       <c r="G92" s="8" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93">
       <c r="B93" s="8" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C93" s="8" t="n">
-        <v>275</v>
+        <v>82</v>
       </c>
       <c r="D93" s="4" t="n">
-        <v>7.4</v>
+        <v>12</v>
       </c>
       <c r="E93" s="8" t="n">
         <v>86</v>
@@ -4851,366 +4811,366 @@
         <v>7</v>
       </c>
       <c r="G93" s="8" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" s="8" t="n">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C94" s="8" t="n">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="D94" s="4" t="n">
         <v>7.4</v>
       </c>
       <c r="E94" s="8" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F94" s="8" t="n">
         <v>7</v>
       </c>
       <c r="G94" s="8" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95">
       <c r="B95" s="8" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C95" s="8" t="n">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="D95" s="4" t="n">
-        <v>9.2</v>
+        <v>7.4</v>
       </c>
       <c r="E95" s="8" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F95" s="8" t="n">
         <v>7</v>
       </c>
       <c r="G95" s="8" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96">
       <c r="B96" s="8" t="n">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="C96" s="8" t="n">
+        <v>253</v>
+      </c>
+      <c r="D96" s="4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E96" s="8" t="n">
         <v>83</v>
       </c>
-      <c r="D96" s="4" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="E96" s="8" t="n">
-        <v>81</v>
-      </c>
       <c r="F96" s="8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G96" s="8" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97">
       <c r="B97" s="8" t="n">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="C97" s="8" t="n">
-        <v>24</v>
+        <v>254</v>
       </c>
       <c r="D97" s="4" t="n">
-        <v>13.8</v>
+        <v>9.2</v>
       </c>
       <c r="E97" s="8" t="n">
         <v>81</v>
       </c>
       <c r="F97" s="8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G97" s="8" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98">
       <c r="B98" s="8" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C98" s="8" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D98" s="4" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="E98" s="8" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F98" s="8" t="n">
         <v>8</v>
       </c>
       <c r="G98" s="8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="B99" s="8" t="n">
-        <v>78</v>
-      </c>
-      <c r="C99" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="C99" s="8" t="n">
+        <v>24</v>
+      </c>
       <c r="D99" s="4" t="n">
-        <v>6.9</v>
+        <v>13.8</v>
       </c>
       <c r="E99" s="8" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F99" s="8" t="n">
         <v>8</v>
       </c>
       <c r="G99" s="8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
       <c r="B100" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="C100" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="C100" s="8" t="n">
+        <v>77</v>
+      </c>
       <c r="D100" s="4" t="n">
         <v>7.4</v>
       </c>
       <c r="E100" s="8" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F100" s="8" t="n">
         <v>8</v>
       </c>
       <c r="G100" s="8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
       <c r="B101" s="8" t="n">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C101" s="8"/>
       <c r="D101" s="4" t="n">
-        <v>4.6</v>
+        <v>6.9</v>
       </c>
       <c r="E101" s="8" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F101" s="8" t="n">
         <v>8</v>
       </c>
       <c r="G101" s="8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102">
       <c r="B102" s="8" t="n">
-        <v>122</v>
-      </c>
-      <c r="C102" s="8" t="n">
-        <v>255</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C102" s="8"/>
       <c r="D102" s="4" t="n">
-        <v>4</v>
+        <v>7.4</v>
       </c>
       <c r="E102" s="8" t="n">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F102" s="8" t="n">
         <v>8</v>
       </c>
       <c r="G102" s="8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103">
       <c r="B103" s="8" t="n">
-        <v>89</v>
-      </c>
-      <c r="C103" s="8" t="n">
-        <v>229</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C103" s="8"/>
       <c r="D103" s="4" t="n">
-        <v>10.3</v>
+        <v>4.6</v>
       </c>
       <c r="E103" s="8" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F103" s="8" t="n">
         <v>8</v>
       </c>
       <c r="G103" s="8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104">
       <c r="B104" s="8" t="n">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C104" s="8" t="n">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="D104" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E104" s="8" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F104" s="8" t="n">
         <v>8</v>
       </c>
       <c r="G104" s="8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105">
-      <c r="B105" s="8"/>
+      <c r="B105" s="8" t="n">
+        <v>89</v>
+      </c>
       <c r="C105" s="8" t="n">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D105" s="4" t="n">
-        <v>8.6</v>
+        <v>10.3</v>
       </c>
       <c r="E105" s="8" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F105" s="8" t="n">
         <v>8</v>
       </c>
       <c r="G105" s="8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106">
-      <c r="B106" s="8"/>
+      <c r="B106" s="8" t="n">
+        <v>110</v>
+      </c>
       <c r="C106" s="8" t="n">
-        <v>137</v>
+        <v>207</v>
       </c>
       <c r="D106" s="4" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="E106" s="8" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F106" s="8" t="n">
         <v>8</v>
       </c>
       <c r="G106" s="8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107">
-      <c r="B107" s="8" t="n">
-        <v>44</v>
-      </c>
+      <c r="B107" s="8"/>
       <c r="C107" s="8" t="n">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="D107" s="4" t="n">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="E107" s="8" t="n">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F107" s="8" t="n">
         <v>8</v>
       </c>
       <c r="G107" s="8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108">
-      <c r="B108" s="8" t="n">
-        <v>28</v>
-      </c>
+      <c r="B108" s="8"/>
       <c r="C108" s="8" t="n">
-        <v>273</v>
+        <v>137</v>
       </c>
       <c r="D108" s="4" t="n">
         <v>11.5</v>
       </c>
       <c r="E108" s="8" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F108" s="8" t="n">
         <v>8</v>
       </c>
       <c r="G108" s="8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109">
       <c r="B109" s="8" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C109" s="8" t="n">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="D109" s="4" t="n">
-        <v>9.7</v>
+        <v>11.5</v>
       </c>
       <c r="E109" s="8" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F109" s="8" t="n">
         <v>8</v>
       </c>
       <c r="G109" s="8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110">
-      <c r="B110" s="8"/>
+      <c r="B110" s="8" t="n">
+        <v>28</v>
+      </c>
       <c r="C110" s="8" t="n">
-        <v>64</v>
+        <v>273</v>
       </c>
       <c r="D110" s="4" t="n">
         <v>11.5</v>
       </c>
       <c r="E110" s="8" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F110" s="8" t="n">
         <v>8</v>
       </c>
       <c r="G110" s="8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111">
       <c r="B111" s="8" t="n">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C111" s="8" t="n">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="D111" s="4" t="n">
-        <v>10.3</v>
+        <v>9.7</v>
       </c>
       <c r="E111" s="8" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F111" s="8" t="n">
         <v>8</v>
       </c>
       <c r="G111" s="8" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112">
-      <c r="B112" s="8" t="n">
-        <v>59</v>
-      </c>
+      <c r="B112" s="8"/>
       <c r="C112" s="8" t="n">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D112" s="4" t="n">
-        <v>6.3</v>
+        <v>11.5</v>
       </c>
       <c r="E112" s="8" t="n">
         <v>79</v>
@@ -5219,274 +5179,274 @@
         <v>8</v>
       </c>
       <c r="G112" s="8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113">
       <c r="B113" s="8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C113" s="8" t="n">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="D113" s="4" t="n">
-        <v>7.4</v>
+        <v>10.3</v>
       </c>
       <c r="E113" s="8" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F113" s="8" t="n">
         <v>8</v>
       </c>
       <c r="G113" s="8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114">
       <c r="B114" s="8" t="n">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C114" s="8" t="n">
-        <v>244</v>
+        <v>51</v>
       </c>
       <c r="D114" s="4" t="n">
-        <v>10.9</v>
+        <v>6.3</v>
       </c>
       <c r="E114" s="8" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F114" s="8" t="n">
         <v>8</v>
       </c>
       <c r="G114" s="8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115">
       <c r="B115" s="8" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C115" s="8" t="n">
-        <v>190</v>
+        <v>115</v>
       </c>
       <c r="D115" s="4" t="n">
-        <v>10.3</v>
+        <v>7.4</v>
       </c>
       <c r="E115" s="8" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F115" s="8" t="n">
         <v>8</v>
       </c>
       <c r="G115" s="8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116">
       <c r="B116" s="8" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C116" s="8" t="n">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D116" s="4" t="n">
-        <v>15.5</v>
+        <v>10.9</v>
       </c>
       <c r="E116" s="8" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F116" s="8" t="n">
         <v>8</v>
       </c>
       <c r="G116" s="8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117">
       <c r="B117" s="8" t="n">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C117" s="8" t="n">
-        <v>36</v>
+        <v>190</v>
       </c>
       <c r="D117" s="4" t="n">
-        <v>14.3</v>
+        <v>10.3</v>
       </c>
       <c r="E117" s="8" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F117" s="8" t="n">
         <v>8</v>
       </c>
       <c r="G117" s="8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118">
-      <c r="B118" s="8"/>
+      <c r="B118" s="8" t="n">
+        <v>21</v>
+      </c>
       <c r="C118" s="8" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D118" s="4" t="n">
-        <v>12.6</v>
+        <v>15.5</v>
       </c>
       <c r="E118" s="8" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F118" s="8" t="n">
         <v>8</v>
       </c>
       <c r="G118" s="8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119">
       <c r="B119" s="8" t="n">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C119" s="8" t="n">
-        <v>212</v>
+        <v>36</v>
       </c>
       <c r="D119" s="4" t="n">
-        <v>9.7</v>
+        <v>14.3</v>
       </c>
       <c r="E119" s="8" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F119" s="8" t="n">
         <v>8</v>
       </c>
       <c r="G119" s="8" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120">
-      <c r="B120" s="8" t="n">
-        <v>168</v>
-      </c>
+      <c r="B120" s="8"/>
       <c r="C120" s="8" t="n">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="D120" s="4" t="n">
-        <v>3.4</v>
+        <v>12.6</v>
       </c>
       <c r="E120" s="8" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F120" s="8" t="n">
         <v>8</v>
       </c>
       <c r="G120" s="8" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121">
       <c r="B121" s="8" t="n">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C121" s="8" t="n">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D121" s="4" t="n">
-        <v>8</v>
+        <v>9.7</v>
       </c>
       <c r="E121" s="8" t="n">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F121" s="8" t="n">
         <v>8</v>
       </c>
       <c r="G121" s="8" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122">
-      <c r="B122" s="8"/>
+      <c r="B122" s="8" t="n">
+        <v>168</v>
+      </c>
       <c r="C122" s="8" t="n">
-        <v>153</v>
+        <v>238</v>
       </c>
       <c r="D122" s="4" t="n">
-        <v>5.7</v>
+        <v>3.4</v>
       </c>
       <c r="E122" s="8" t="n">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F122" s="8" t="n">
         <v>8</v>
       </c>
       <c r="G122" s="8" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123">
       <c r="B123" s="8" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C123" s="8" t="n">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="D123" s="4" t="n">
-        <v>9.7</v>
+        <v>8</v>
       </c>
       <c r="E123" s="8" t="n">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F123" s="8" t="n">
         <v>8</v>
       </c>
       <c r="G123" s="8" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124">
-      <c r="B124" s="8" t="n">
-        <v>118</v>
-      </c>
+      <c r="B124" s="8"/>
       <c r="C124" s="8" t="n">
-        <v>225</v>
+        <v>153</v>
       </c>
       <c r="D124" s="4" t="n">
-        <v>2.3</v>
+        <v>5.7</v>
       </c>
       <c r="E124" s="8" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F124" s="8" t="n">
         <v>8</v>
       </c>
       <c r="G124" s="8" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="125">
       <c r="B125" s="8" t="n">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C125" s="8" t="n">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="D125" s="4" t="n">
-        <v>6.3</v>
+        <v>9.7</v>
       </c>
       <c r="E125" s="8" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F125" s="8" t="n">
         <v>8</v>
       </c>
       <c r="G125" s="8" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126">
       <c r="B126" s="8" t="n">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="C126" s="8" t="n">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="D126" s="4" t="n">
-        <v>6.3</v>
+        <v>2.3</v>
       </c>
       <c r="E126" s="8" t="n">
         <v>94</v>
@@ -5495,628 +5455,668 @@
         <v>8</v>
       </c>
       <c r="G126" s="8" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="127">
       <c r="B127" s="8" t="n">
+        <v>84</v>
+      </c>
+      <c r="C127" s="8" t="n">
+        <v>237</v>
+      </c>
+      <c r="D127" s="4" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E127" s="8" t="n">
         <v>96</v>
       </c>
-      <c r="C127" s="8" t="n">
-        <v>167</v>
-      </c>
-      <c r="D127" s="4" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="E127" s="8" t="n">
-        <v>91</v>
-      </c>
       <c r="F127" s="8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G127" s="8" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128">
       <c r="B128" s="8" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C128" s="8" t="n">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D128" s="4" t="n">
-        <v>5.1</v>
+        <v>6.3</v>
       </c>
       <c r="E128" s="8" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F128" s="8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G128" s="8" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="129">
       <c r="B129" s="8" t="n">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C129" s="8" t="n">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="D129" s="4" t="n">
-        <v>2.8</v>
+        <v>6.9</v>
       </c>
       <c r="E129" s="8" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F129" s="8" t="n">
         <v>9</v>
       </c>
       <c r="G129" s="8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="B130" s="8" t="n">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C130" s="8" t="n">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D130" s="4" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="E130" s="8" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F130" s="8" t="n">
         <v>9</v>
       </c>
       <c r="G130" s="8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
       <c r="B131" s="8" t="n">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="C131" s="8" t="n">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="D131" s="4" t="n">
-        <v>7.4</v>
+        <v>2.8</v>
       </c>
       <c r="E131" s="8" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F131" s="8" t="n">
         <v>9</v>
       </c>
       <c r="G131" s="8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132">
       <c r="B132" s="8" t="n">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="C132" s="8" t="n">
-        <v>92</v>
+        <v>189</v>
       </c>
       <c r="D132" s="4" t="n">
-        <v>15.5</v>
+        <v>4.6</v>
       </c>
       <c r="E132" s="8" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F132" s="8" t="n">
         <v>9</v>
       </c>
       <c r="G132" s="8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133">
       <c r="B133" s="8" t="n">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C133" s="8" t="n">
-        <v>252</v>
+        <v>95</v>
       </c>
       <c r="D133" s="4" t="n">
-        <v>10.9</v>
+        <v>7.4</v>
       </c>
       <c r="E133" s="8" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F133" s="8" t="n">
         <v>9</v>
       </c>
       <c r="G133" s="8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134">
       <c r="B134" s="8" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C134" s="8" t="n">
-        <v>220</v>
+        <v>92</v>
       </c>
       <c r="D134" s="4" t="n">
-        <v>10.3</v>
+        <v>15.5</v>
       </c>
       <c r="E134" s="8" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F134" s="8" t="n">
         <v>9</v>
       </c>
       <c r="G134" s="8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135">
       <c r="B135" s="8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C135" s="8" t="n">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="D135" s="4" t="n">
         <v>10.9</v>
       </c>
       <c r="E135" s="8" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F135" s="8" t="n">
         <v>9</v>
       </c>
       <c r="G135" s="8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136">
       <c r="B136" s="8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C136" s="8" t="n">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="D136" s="4" t="n">
-        <v>9.7</v>
+        <v>10.3</v>
       </c>
       <c r="E136" s="8" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F136" s="8" t="n">
         <v>9</v>
       </c>
       <c r="G136" s="8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137">
       <c r="B137" s="8" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C137" s="8" t="n">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D137" s="4" t="n">
-        <v>14.9</v>
+        <v>10.9</v>
       </c>
       <c r="E137" s="8" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F137" s="8" t="n">
         <v>9</v>
       </c>
       <c r="G137" s="8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138">
       <c r="B138" s="8" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C138" s="8" t="n">
         <v>259</v>
       </c>
       <c r="D138" s="4" t="n">
-        <v>15.5</v>
+        <v>9.7</v>
       </c>
       <c r="E138" s="8" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F138" s="8" t="n">
         <v>9</v>
       </c>
       <c r="G138" s="8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139">
       <c r="B139" s="8" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C139" s="8" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D139" s="4" t="n">
-        <v>6.3</v>
+        <v>14.9</v>
       </c>
       <c r="E139" s="8" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F139" s="8" t="n">
         <v>9</v>
       </c>
       <c r="G139" s="8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140">
       <c r="B140" s="8" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C140" s="8" t="n">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="D140" s="4" t="n">
-        <v>10.9</v>
+        <v>15.5</v>
       </c>
       <c r="E140" s="8" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F140" s="8" t="n">
         <v>9</v>
       </c>
       <c r="G140" s="8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141">
       <c r="B141" s="8" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C141" s="8" t="n">
-        <v>112</v>
+        <v>238</v>
       </c>
       <c r="D141" s="4" t="n">
-        <v>11.5</v>
+        <v>6.3</v>
       </c>
       <c r="E141" s="8" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F141" s="8" t="n">
         <v>9</v>
       </c>
       <c r="G141" s="8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142">
       <c r="B142" s="8" t="n">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="C142" s="8" t="n">
-        <v>237</v>
+        <v>24</v>
       </c>
       <c r="D142" s="4" t="n">
-        <v>6.9</v>
+        <v>10.9</v>
       </c>
       <c r="E142" s="8" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F142" s="8" t="n">
         <v>9</v>
       </c>
       <c r="G142" s="8" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143">
       <c r="B143" s="8" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C143" s="8" t="n">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="D143" s="4" t="n">
-        <v>13.8</v>
+        <v>11.5</v>
       </c>
       <c r="E143" s="8" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F143" s="8" t="n">
         <v>9</v>
       </c>
       <c r="G143" s="8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144">
       <c r="B144" s="8" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C144" s="8" t="n">
-        <v>27</v>
+        <v>237</v>
       </c>
       <c r="D144" s="4" t="n">
-        <v>10.3</v>
+        <v>6.9</v>
       </c>
       <c r="E144" s="8" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F144" s="8" t="n">
         <v>9</v>
       </c>
       <c r="G144" s="8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145">
       <c r="B145" s="8" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C145" s="8" t="n">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D145" s="4" t="n">
-        <v>10.3</v>
+        <v>13.8</v>
       </c>
       <c r="E145" s="8" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F145" s="8" t="n">
         <v>9</v>
       </c>
       <c r="G145" s="8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="8" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C146" s="8" t="n">
-        <v>201</v>
+        <v>27</v>
       </c>
       <c r="D146" s="4" t="n">
-        <v>8</v>
+        <v>10.3</v>
       </c>
       <c r="E146" s="8" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F146" s="8" t="n">
         <v>9</v>
       </c>
       <c r="G146" s="8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147">
       <c r="B147" s="8" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C147" s="8" t="n">
         <v>238</v>
       </c>
       <c r="D147" s="4" t="n">
-        <v>12.6</v>
+        <v>10.3</v>
       </c>
       <c r="E147" s="8" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F147" s="8" t="n">
         <v>9</v>
       </c>
       <c r="G147" s="8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148">
       <c r="B148" s="8" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C148" s="8" t="n">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="D148" s="4" t="n">
-        <v>9.2</v>
+        <v>8</v>
       </c>
       <c r="E148" s="8" t="n">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F148" s="8" t="n">
         <v>9</v>
       </c>
       <c r="G148" s="8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149">
       <c r="B149" s="8" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C149" s="8" t="n">
-        <v>139</v>
+        <v>238</v>
       </c>
       <c r="D149" s="4" t="n">
-        <v>10.3</v>
+        <v>12.6</v>
       </c>
       <c r="E149" s="8" t="n">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="F149" s="8" t="n">
         <v>9</v>
       </c>
       <c r="G149" s="8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="150">
       <c r="B150" s="8" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C150" s="8" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D150" s="4" t="n">
-        <v>10.3</v>
+        <v>9.2</v>
       </c>
       <c r="E150" s="8" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F150" s="8" t="n">
         <v>9</v>
       </c>
       <c r="G150" s="8" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="151">
       <c r="B151" s="8" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C151" s="8" t="n">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="D151" s="4" t="n">
-        <v>16.6</v>
+        <v>10.3</v>
       </c>
       <c r="E151" s="8" t="n">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="F151" s="8" t="n">
         <v>9</v>
       </c>
       <c r="G151" s="8" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="152">
       <c r="B152" s="8" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C152" s="8" t="n">
-        <v>193</v>
+        <v>49</v>
       </c>
       <c r="D152" s="4" t="n">
-        <v>6.9</v>
+        <v>10.3</v>
       </c>
       <c r="E152" s="8" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F152" s="8" t="n">
         <v>9</v>
       </c>
       <c r="G152" s="8" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="153">
-      <c r="B153" s="8"/>
+      <c r="B153" s="8" t="n">
+        <v>14</v>
+      </c>
       <c r="C153" s="8" t="n">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="D153" s="4" t="n">
-        <v>13.2</v>
+        <v>16.6</v>
       </c>
       <c r="E153" s="8" t="n">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F153" s="8" t="n">
         <v>9</v>
       </c>
       <c r="G153" s="8" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="154">
       <c r="B154" s="8" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C154" s="8" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D154" s="4" t="n">
-        <v>14.3</v>
+        <v>6.9</v>
       </c>
       <c r="E154" s="8" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F154" s="8" t="n">
         <v>9</v>
       </c>
       <c r="G154" s="8" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="155">
-      <c r="B155" s="8" t="n">
-        <v>18</v>
-      </c>
+      <c r="B155" s="8"/>
       <c r="C155" s="8" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="D155" s="4" t="n">
-        <v>8</v>
+        <v>13.2</v>
       </c>
       <c r="E155" s="8" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F155" s="8" t="n">
         <v>9</v>
       </c>
       <c r="G155" s="8" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="B156" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="C156" s="8" t="n">
+        <v>191</v>
+      </c>
+      <c r="D156" s="4" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="E156" s="8" t="n">
+        <v>75</v>
+      </c>
+      <c r="F156" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="G156" s="8" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="B157" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C157" s="8" t="n">
+        <v>131</v>
+      </c>
+      <c r="D157" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E157" s="8" t="n">
+        <v>76</v>
+      </c>
+      <c r="F157" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="G157" s="8" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="156">
-      <c r="B156" s="9" t="n">
+    <row r="158">
+      <c r="B158" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="C156" s="9" t="n">
+      <c r="C158" s="9" t="n">
         <v>223</v>
       </c>
-      <c r="D156" s="6" t="n">
+      <c r="D158" s="6" t="n">
         <v>11.5</v>
       </c>
-      <c r="E156" s="9" t="n">
+      <c r="E158" s="9" t="n">
         <v>68</v>
       </c>
-      <c r="F156" s="9" t="n">
+      <c r="F158" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="G156" s="9" t="n">
+      <c r="G158" s="9" t="n">
         <v>30</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="B158" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="B159" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="160">
       <c r="B160" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" s="2" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B158:G158"/>
-    <mergeCell ref="B159:G159"/>
+    <mergeCell ref="B3:G3"/>
     <mergeCell ref="B160:G160"/>
+    <mergeCell ref="B161:G161"/>
+    <mergeCell ref="B162:G162"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/vignettes/tableau.xlsx
+++ b/vignettes/tableau.xlsx
@@ -39,13 +39,13 @@
     <t xml:space="preserve">virginica</t>
   </si>
   <si>
-    <t xml:space="preserve">Données fleurs iris</t>
+    <t xml:space="preserve">DonnÃ©es fleurs iris</t>
   </si>
   <si>
     <t xml:space="preserve">Source : Ceci est une source quelconque</t>
   </si>
   <si>
-    <t xml:space="preserve">Champ : France métropolitaine</t>
+    <t xml:space="preserve">Champ : France mÃ©tropolitaine</t>
   </si>
   <si>
     <t xml:space="preserve">Ozone</t>
@@ -66,7 +66,7 @@
     <t xml:space="preserve">Day</t>
   </si>
   <si>
-    <t xml:space="preserve">Données qualité de l'air</t>
+    <t xml:space="preserve">DonnÃ©es qualitÃ© de l'air</t>
   </si>
   <si>
     <t xml:space="preserve">Note de lecture : blablabla</t>

--- a/vignettes/tableau.xlsx
+++ b/vignettes/tableau.xlsx
@@ -39,13 +39,13 @@
     <t xml:space="preserve">virginica</t>
   </si>
   <si>
-    <t xml:space="preserve">DonnÃ©es fleurs iris</t>
+    <t xml:space="preserve">Données fleurs iris</t>
   </si>
   <si>
     <t xml:space="preserve">Source : Ceci est une source quelconque</t>
   </si>
   <si>
-    <t xml:space="preserve">Champ : France mÃ©tropolitaine</t>
+    <t xml:space="preserve">Champ : France métropolitaine</t>
   </si>
   <si>
     <t xml:space="preserve">Ozone</t>
@@ -66,7 +66,7 @@
     <t xml:space="preserve">Day</t>
   </si>
   <si>
-    <t xml:space="preserve">DonnÃ©es qualitÃ© de l'air</t>
+    <t xml:space="preserve">Données qualité de l'air</t>
   </si>
   <si>
     <t xml:space="preserve">Note de lecture : blablabla</t>
